--- a/DATA/IsoData/MOABIsoData.xlsx
+++ b/DATA/IsoData/MOABIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">ebc022ea-fba2-4ae9-bfba-ce4ee51ed901</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bc35b139-ad04-48ee-80d1-cd674db67469</t>
   </si>
   <si>
     <t xml:space="preserve">MOAB.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162447Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d82b03fc-e31c-4fed-882d-023c9fd210d1</t>
+    <t xml:space="preserve">20210112T162505Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3dac38ee-5c6b-4612-8dcd-66c378d61e26</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MOAB.20190102.1411</t>
@@ -101,10 +107,10 @@
     <t xml:space="preserve">A00000057045</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153045Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">386abffd-e39b-4b8f-bee9-032cb208dfc8</t>
+    <t xml:space="preserve">20210112T152136Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5f150c9c-fbaf-4cd3-a825-11c0eec04573</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MOAB.20190411.1519</t>
@@ -116,10 +122,10 @@
     <t xml:space="preserve">A00000057218</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153007Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ffe701da-4db1-42f0-8abd-cfa2df2954d6</t>
+    <t xml:space="preserve">20210112T152147Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7c5871d2-c62e-4b6f-bf6b-3aa53bc8c278</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MOAB.20190424.0943</t>
@@ -131,7 +137,7 @@
     <t xml:space="preserve">A00000057472</t>
   </si>
   <si>
-    <t xml:space="preserve">94dafb36-272c-4533-b2cd-6b8aa41b2778</t>
+    <t xml:space="preserve">f86e4160-12f9-4e75-a3af-e82156a45e66</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MOAB.20190506.0920</t>
@@ -143,10 +149,10 @@
     <t xml:space="preserve">A00000057241</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T150137Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c3fa54c0-53b6-4215-8436-f4db46ab607f</t>
+    <t xml:space="preserve">20210112T152200Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd46dc95-72c2-42e9-bd0d-f48b2a7ee71b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MOAB.20190605.1320</t>
@@ -158,10 +164,10 @@
     <t xml:space="preserve">A00000057233</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T164258Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62a31a06-b80a-438b-b763-06879c7876f2</t>
+    <t xml:space="preserve">20210112T164515Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b84fcd81-781f-418d-a537-ede41714a201</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MOAB.20190619.1539</t>
@@ -173,7 +179,7 @@
     <t xml:space="preserve">A00000057237</t>
   </si>
   <si>
-    <t xml:space="preserve">dd57cacc-29b7-476a-adf3-e76731814f1e</t>
+    <t xml:space="preserve">f252ec07-88a1-4c7a-8076-5ebde102cc41</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MOAB.20190701.1442</t>
@@ -185,10 +191,10 @@
     <t xml:space="preserve">A00000057249</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T164123Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eba0f86b-d6ff-46f4-b8ef-e0a63add0a7e</t>
+    <t xml:space="preserve">20210112T162442Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">494a7bb3-9156-4848-83b4-2d83743ccde4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MOAB.20190716.1327</t>
@@ -200,7 +206,7 @@
     <t xml:space="preserve">A00000057254</t>
   </si>
   <si>
-    <t xml:space="preserve">b66d7cb0-f392-42bc-9143-db54f7799305</t>
+    <t xml:space="preserve">1f5ac604-b593-4401-90cc-fa6d1e5f2297</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MOAB.20190731.1434</t>
@@ -212,7 +218,7 @@
     <t xml:space="preserve">A00000058705</t>
   </si>
   <si>
-    <t xml:space="preserve">6e933c73-e480-47e3-a890-dcb925d1639f</t>
+    <t xml:space="preserve">6acb8737-4a94-4661-a3ab-bc0fe8c1293d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MOAB.20190814.1355</t>
@@ -224,10 +230,10 @@
     <t xml:space="preserve">A00000058601</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170804Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a87ee53f-b94a-4c17-a38c-e5f6e669b949</t>
+    <t xml:space="preserve">20210112T160559Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">421cd87d-0501-4b84-bf8a-31c82e54bdb6</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MOAB.20190826.1600</t>
@@ -242,7 +248,7 @@
     <t xml:space="preserve">Tiny amount of sample</t>
   </si>
   <si>
-    <t xml:space="preserve">c0a5e602-78af-471a-8d85-3c59f86513a6</t>
+    <t xml:space="preserve">b256222d-7bba-4148-96a8-8c649823109c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MOAB.20190923.1404</t>
@@ -257,10 +263,10 @@
     <t xml:space="preserve">very less amount of sample</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170505Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2f659238-f811-4bd5-918b-33386a297fe9</t>
+    <t xml:space="preserve">20210112T162238Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e4e7f975-46c1-4fad-9163-252eb750fa49</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MOAB.20191204.1350</t>
@@ -272,10 +278,10 @@
     <t xml:space="preserve">A00000057445</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T163503Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40fc8acb-5018-4d66-809c-58f51fcf50a8</t>
+    <t xml:space="preserve">20210112T164334Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">379c157e-ae30-4c02-ab3c-fa65dbc74867</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MOAB.20191217.1455</t>
@@ -287,7 +293,7 @@
     <t xml:space="preserve">A00000057433</t>
   </si>
   <si>
-    <t xml:space="preserve">187edaff-8edd-4ace-9483-7caba7a2f263</t>
+    <t xml:space="preserve">7882f084-3d47-44ec-99da-d9446999cdae</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MOAB.20191230.1332</t>
@@ -299,7 +305,7 @@
     <t xml:space="preserve">A00000058658</t>
   </si>
   <si>
-    <t xml:space="preserve">f5c9fc7f-0b7b-40fe-8858-4412b47c936a</t>
+    <t xml:space="preserve">dd1c63a1-9d0f-431b-9907-b820fe9b3f3c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MOAB.20200113.1315</t>
@@ -311,10 +317,13 @@
     <t xml:space="preserve">A00000058673</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T150709Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7fab3ae1-ad1f-4e69-b3e8-a14a58721117</t>
+    <t xml:space="preserve">20210112T152443Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">977dc824-31d3-47d1-a4d0-fc8e56fa731c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MOAB.20200128.1358</t>
@@ -324,6 +333,51 @@
   </si>
   <si>
     <t xml:space="preserve">A00000058655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8d020705-584f-46d6-b0aa-11a863664ad6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MOAB.20200211.1330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MOAB.20200211.1330.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000058669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">very less amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T152658Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">081bb50d-8db4-4263-9789-65e25fcea565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MOAB.20200224.1301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MOAB.20200224.1301.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000116773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">851b2cf2-a179-4c8c-8603-b1e0d52f4f1e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MOAB.20200310.1420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MOAB.20200310.1420.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000116769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T151759Z</t>
   </si>
 </sst>
 </file>
@@ -661,7 +715,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -715,23 +769,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43423.8083333333</v>
@@ -752,38 +809,41 @@
         <v>0.153</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43468.7916666667</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>43423.8083333333</v>
+        <v>43437.8958333333</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>43467.8826388889</v>
@@ -801,35 +861,38 @@
         <v>0.123</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43528.7916666667</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43551.6319444444</v>
@@ -850,35 +913,38 @@
         <v>0.046</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43616.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43566.9055555556</v>
@@ -899,35 +965,38 @@
         <v>0.424</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43658.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43579.7048611111</v>
@@ -948,35 +1017,38 @@
         <v>0.217</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43658.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43607.7909722222</v>
@@ -997,35 +1069,38 @@
         <v>0.125</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43675.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43621.8263888889</v>
@@ -1046,38 +1121,41 @@
         <v>0.189</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>43621.8263888889</v>
+        <v>43635.9166666667</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>43647.8625</v>
@@ -1095,35 +1173,38 @@
         <v>0.373</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43647.8444444444</v>
@@ -1144,35 +1225,38 @@
         <v>0.311</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43662.8229166667</v>
@@ -1193,35 +1277,38 @@
         <v>0.233</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43677.8659722222</v>
@@ -1242,35 +1329,38 @@
         <v>0.567</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43691.8409722222</v>
@@ -1291,37 +1381,40 @@
         <v>0.593</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43717.9409722222</v>
@@ -1342,37 +1435,40 @@
         <v>0.283</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q14" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43787.8923611111</v>
@@ -1393,35 +1489,38 @@
         <v>0.045</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43803.8861111111</v>
@@ -1442,35 +1541,38 @@
         <v>0.142</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43816.925</v>
@@ -1491,35 +1593,38 @@
         <v>0.125</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43829.8652777778</v>
@@ -1540,35 +1645,38 @@
         <v>0.043</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="R18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>43843.8527777778</v>
@@ -1589,17 +1697,178 @@
         <v>0.154</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="R19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>43858.8743055556</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>43872.8541666667</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-5.716</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-112.583</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>44117.75</v>
+      </c>
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>112</v>
+      </c>
+      <c r="R20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>43872.8645833333</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>43885.8340277778</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-14.474</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-114.839</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="M21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>44117.75</v>
+      </c>
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21"/>
+      <c r="Q21" t="s">
+        <v>112</v>
+      </c>
+      <c r="R21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>43885.8527777778</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>43900.8472222222</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-16.734</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-124.462</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="M22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>44117.75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22"/>
+      <c r="Q22" t="s">
+        <v>121</v>
+      </c>
+      <c r="R22" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
